--- a/data/sky.xlsx
+++ b/data/sky.xlsx
@@ -20,26 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">sky_conditions</t>
   </si>
   <si>
+    <t xml:space="preserve">Unrecorded</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fair</t>
   </si>
   <si>
     <t xml:space="preserve">Partly Cloudy</t>
   </si>
   <si>
-    <t xml:space="preserve">"Widespread Dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostly Clound</t>
+    <t xml:space="preserve">Partly Cloudy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly Cloudy</t>
   </si>
   <si>
     <t xml:space="preserve">Cloudy</t>
   </si>
   <si>
+    <t xml:space="preserve">Fog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Drizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drizzle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Light Rain</t>
   </si>
   <si>
@@ -49,31 +61,37 @@
     <t xml:space="preserve">Heavy Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">Thunder Storm</t>
+    <t xml:space="preserve">Thunderstorm</t>
   </si>
   <si>
     <t xml:space="preserve">Severe Thunderstorm</t>
   </si>
   <si>
-    <t xml:space="preserve">Dericho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tornado</t>
   </si>
   <si>
+    <t xml:space="preserve">Derecho </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tropical Storm</t>
   </si>
   <si>
     <t xml:space="preserve">Hurricane</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow Fluries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snow   </t>
+    <t xml:space="preserve">Snowflakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow  </t>
   </si>
   <si>
     <t xml:space="preserve">Blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widespread Dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust Storm</t>
   </si>
 </sst>
 </file>
@@ -83,11 +101,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +122,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,8 +173,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,13 +203,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.19"/>
   </cols>
@@ -261,13 +295,43 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
